--- a/testexceldocx1.xlsx
+++ b/testexceldocx1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>Modify post first commit</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>dat16</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -486,7 +513,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +542,9 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -529,9 +558,13 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
@@ -543,11 +576,19 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -557,11 +598,19 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -571,11 +620,21 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -585,8 +644,12 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -599,9 +662,15 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
@@ -613,9 +682,15 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
@@ -628,10 +703,18 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -641,11 +724,19 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -655,11 +746,21 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -669,9 +770,15 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
@@ -683,10 +790,18 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -698,10 +813,14 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -711,8 +830,12 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -728,8 +851,12 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -738,9 +865,15 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
